--- a/Documentación/Respuestas/respuestas a las preguntas_v1.xlsx
+++ b/Documentación/Respuestas/respuestas a las preguntas_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Migración\copowerDev\Documentación\Respuestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE338731-D539-4511-A2D4-B1CD21D7DA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6FA634-E866-4159-8D6D-2047A58C8B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="17520" xr2:uid="{87CC25C4-4C50-4D8E-AD64-288F87F099DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{87CC25C4-4C50-4D8E-AD64-288F87F099DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1384,31 +1384,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3031,8 +3031,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>723900</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>3419</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3475,9 +3475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B27F834-5C37-4C78-B792-68A42F0DF0E1}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,13 +3509,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
+      <c r="A2" s="62">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3536,13 +3536,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="62">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3866,13 +3866,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="54">
+      <c r="A27" s="61">
         <v>7</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
     </row>
     <row r="28" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -4015,13 +4015,13 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="54">
+      <c r="A37" s="61">
         <v>11</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
     </row>
     <row r="38" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
@@ -4102,13 +4102,13 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
     </row>
     <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -4126,22 +4126,22 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
     </row>
     <row r="47" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
@@ -4274,13 +4274,13 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -4358,13 +4358,13 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -4472,13 +4472,13 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="57" t="s">
+      <c r="A70" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -4529,13 +4529,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="57" t="s">
+      <c r="A74" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
     </row>
     <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
@@ -4583,13 +4583,13 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="57" t="s">
+      <c r="A78" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:6" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
@@ -4647,6 +4647,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A23:E23"/>
     <mergeCell ref="A62:E62"/>
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="A74:E74"/>
@@ -4656,15 +4665,6 @@
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentación/Respuestas/respuestas a las preguntas_v1.xlsx
+++ b/Documentación/Respuestas/respuestas a las preguntas_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Migración\copowerDev\Documentación\Respuestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6FA634-E866-4159-8D6D-2047A58C8B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DDA3F4-0156-444F-8841-141342D6C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{87CC25C4-4C50-4D8E-AD64-288F87F099DB}"/>
   </bookViews>
@@ -335,11 +335,6 @@
 </t>
   </si>
   <si>
-    <t>los proximos bloques son los estados del misturador, que passa en cada estado y como los reguladores funcionan. No se si esta parte con todos los estados deben ser inclusos todos en un unico bloque, done las salidas son el estado y las regulaciones y alarmes. 
-IMPORTANTE: "MIX.mode[mixer] ==" siempre esta presente, esto viene del programa principal, que manda el modo de operacion que el misturador deve estar. Este "MIX.mode[mixer]" debe ser una entrada en este bloque donde el programa principal puede setar qual modo deve operar el misturador.
-[mixer] es para selecionar misturador A o B, 0 significa A y 1 significa B. Creo que en nuestro caso no necessitamos considerar esto, pues como descrito acima, si el usuario quire usar otro misturador, puede adicionar otro bloque.</t>
-  </si>
-  <si>
     <t>MIX_SearchLimitLean</t>
   </si>
   <si>
@@ -735,45 +730,6 @@
   <si>
     <t>Esto es una maquina de estado, que toma cuenta de que hacer cuando ocurra el trip de una proteccion. 
 En este caso, podria poer en una salida del FB, apenas True o FALSE, que el usuario podria usar para anunciar el alarme.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Es un parametro, como descrito arriba. Es para verificar si en el sistema fue usado un sensor de lambda, para controlar la emision. Si el valor del parametro es 1, entonces se usa el sensor lambda, si el valor es 2, entonces no se usa sensor de lambda, pero se usa sensores de pression y temperatura en el manifold (entrada de emisión del gas, se mira temperatura, presión). Si el valor es 3, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tampoco se usa sensor lambda, se usa las temperaturas de la cabeza de los cilindros (del motor).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-En este MIX_ControlDeviation, solo hace sentido en el control por p/T o temperatura de cylindors, por eso chequean. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>En este caso recomiendo dos entradas en el FB que el usuario puede decir TRUE or FALSE, para ver si usa control p/T en el manifold o temperatura de los cylindros.</t>
-    </r>
   </si>
   <si>
     <t>Nosotros definimos esta maquina de estados, que le entra una alarma</t>
@@ -955,6 +911,51 @@
   <si>
     <t xml:space="preserve">En el programa hay un parametro que el usuario puede informa a partir de cuantos KW que el mixer empieza a regular. Normalmente este valor es arriba de 10% de la nominal, pero el parametro es variable. Entonces el programa compara el valor actual con el limite para controlar, y si pasa del valor limite, le manda ese "ELM.ReleaseLoadForMixerControl" TRUE as esta parte del programa.
 En este caso, recomiendo hacer una entrada en el FB, llamada "Release Mixer Control", y el usuario puede entonces externamiente hacer logica y mandar un TRUE or FALSE a esta entrada. </t>
+  </si>
+  <si>
+    <t>los proximos bloques son los estados del misturador, que passa en cada estado y como los reguladores funcionan. No se si esta parte con todos los estados deben ser inclusos todos en un unico bloque, done las salidas son el estado y las regulaciones y alarmes. 
+IMPORTANTE: "MIX.mode[mixer] ==" siempre esta presente, esto viene del programa principal, que manda el modo de operacion que el misturador debe estar. Este "MIX.mode[mixer]" debe ser una entrada en este bloque donde el programa principal puede setar qual modo deve operar el misturador.
+[mixer] es para selecionar misturador A o B, 0 significa A y 1 significa B. Creo que en nuestro caso no necessitamos considerar esto, pues como descrito acima, si el usuario quire usar otro misturador, puede adicionar otro bloque.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Es un parametro, como descrito arriba. Es para verificar si en el sistema fue usado un sensor de lambda, para controlar la emision. Si el valor del parametro es 1, entonces se usa el sensor lambda, si el valor es 2, entonces no se usa sensor de lambda, pero se usa sensores de pression y temperatura en el manifold (entrada de emisión del gas, se mira temperatura, presión).
+Si el valor es 3, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tampoco se usa sensor lambda, se usa las temperaturas de la cabeza de los cilindros (del motor).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+En este MIX_ControlDeviation, solo hace sentido en el control por p/T o temperatura de cylindors, por eso chequean. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En este caso recomiendo dos entradas en el FB que el usuario puede decir TRUE or FALSE, para ver si usa control p/T en el manifold o temperatura de los cylindros.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1057,7 +1058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1221,11 +1222,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1378,18 +1481,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1405,10 +1511,43 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3032,7 +3171,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>3419</xdr:rowOff>
+          <xdr:rowOff>1842</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3475,9 +3614,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B27F834-5C37-4C78-B792-68A42F0DF0E1}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,17 +3644,17 @@
         <v>4</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="62">
+      <c r="A2" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:6" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3529,20 +3668,20 @@
         <v>226</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+      <c r="A4" s="55">
         <v>2</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
     </row>
     <row r="5" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -3556,10 +3695,10 @@
         <v>253</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3578,13 +3717,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="55">
+      <c r="A7" s="54">
         <v>3</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -3598,10 +3737,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3616,10 +3755,10 @@
         <v>333</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3631,10 +3770,10 @@
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -3649,7 +3788,7 @@
         <v>402</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3664,20 +3803,20 @@
         <v>448</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="55">
+      <c r="A13" s="54">
         <v>4</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -3706,7 +3845,7 @@
         <v>488</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -3721,28 +3860,28 @@
         <v>489</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="52">
+      <c r="C17" s="67"/>
+      <c r="D17" s="70">
         <v>495506</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" s="65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3754,34 +3893,34 @@
         <v>505</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="55">
+      <c r="A19" s="54">
         <v>5</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+    </row>
+    <row r="20" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="26">
+      <c r="C20" s="62"/>
+      <c r="D20" s="63">
         <v>556</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="64" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -3800,25 +3939,26 @@
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="26">
+      <c r="C22" s="67"/>
+      <c r="D22" s="68">
         <v>564</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>157</v>
-      </c>
+      <c r="E22" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="65"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="55">
+      <c r="A23" s="54">
         <v>6</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -3862,19 +4002,19 @@
         <v>657</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="61">
+      <c r="A27" s="53">
         <v>7</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-    </row>
-    <row r="28" spans="1:6" ht="100.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+    </row>
+    <row r="28" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
@@ -3882,7 +4022,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="28"/>
-      <c r="D28" s="53">
+      <c r="D28" s="52">
         <v>701</v>
       </c>
       <c r="E28" s="43" t="s">
@@ -3904,17 +4044,17 @@
         <v>54</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="55">
+      <c r="A30" s="54">
         <v>10</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:6" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -3928,10 +4068,10 @@
         <v>926</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -3946,7 +4086,7 @@
         <v>966</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3964,7 +4104,7 @@
         <v>41</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -4015,13 +4155,13 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="61">
+      <c r="A37" s="53">
         <v>11</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
     </row>
     <row r="38" spans="1:8" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
@@ -4035,7 +4175,7 @@
         <v>1017</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>55</v>
@@ -4053,13 +4193,13 @@
         <v>53</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="318.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="354" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>56</v>
       </c>
@@ -4074,17 +4214,17 @@
         <v>58</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="55">
+      <c r="A41" s="54">
         <v>13</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
     </row>
     <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
@@ -4098,17 +4238,17 @@
         <v>1076</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
     </row>
     <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -4126,70 +4266,70 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+    </row>
+    <row r="47" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-    </row>
-    <row r="47" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="28" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>67</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="23">
         <v>1294</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="23">
         <v>1295</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>72</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>73</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28">
         <v>1300</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -4204,7 +4344,7 @@
         <v>1327</v>
       </c>
       <c r="E51" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4212,47 +4352,47 @@
         <v>8</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="32"/>
       <c r="D52" s="30">
         <v>1335</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="35"/>
       <c r="D53" s="34">
         <v>1335</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="77.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="34" t="s">
         <v>79</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>80</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="30">
         <v>1360</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -4260,71 +4400,71 @@
         <v>19</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23">
         <v>1371</v>
       </c>
       <c r="E55" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
     </row>
     <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28">
+      <c r="C57" s="62"/>
+      <c r="D57" s="62">
         <v>1449</v>
       </c>
-      <c r="E57" s="46" t="s">
-        <v>71</v>
+      <c r="E57" s="64" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28">
+      <c r="C58" s="67"/>
+      <c r="D58" s="67">
         <v>1453</v>
       </c>
-      <c r="E58" s="46" t="s">
-        <v>74</v>
+      <c r="E58" s="71" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28">
+      <c r="C59" s="67"/>
+      <c r="D59" s="67">
         <v>1491</v>
       </c>
-      <c r="E59" s="46" t="s">
-        <v>89</v>
+      <c r="E59" s="71" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4332,83 +4472,85 @@
         <v>8</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="28"/>
       <c r="D60" s="28">
         <v>1499</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67">
+        <v>1470</v>
+      </c>
+      <c r="E61" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28">
-        <v>1470</v>
-      </c>
-      <c r="E61" s="46" t="s">
-        <v>83</v>
-      </c>
+      <c r="F61" s="65"/>
     </row>
     <row r="62" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
+      <c r="A62" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="C63" s="67"/>
+      <c r="D63" s="67">
+        <v>1614</v>
+      </c>
+      <c r="E63" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28">
-        <v>1614</v>
-      </c>
-      <c r="E63" s="46" t="s">
-        <v>93</v>
-      </c>
+      <c r="F63" s="65"/>
     </row>
     <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28">
+      <c r="C64" s="67"/>
+      <c r="D64" s="67">
         <v>1618</v>
       </c>
-      <c r="E64" s="46" t="s">
-        <v>74</v>
+      <c r="E64" s="71" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28">
+      <c r="C65" s="67"/>
+      <c r="D65" s="67">
         <v>1644</v>
       </c>
-      <c r="E65" s="46" t="s">
-        <v>89</v>
+      <c r="E65" s="71" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4416,215 +4558,219 @@
         <v>8</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="28"/>
       <c r="D66" s="28">
         <v>1652</v>
       </c>
       <c r="E66" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28">
+      <c r="C67" s="67"/>
+      <c r="D67" s="67">
         <v>1652</v>
       </c>
-      <c r="E67" s="46" t="s">
-        <v>96</v>
-      </c>
+      <c r="E67" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="F67" s="65"/>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="28"/>
       <c r="D68" s="28">
         <v>1676</v>
       </c>
       <c r="E68" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67">
+        <v>1691</v>
+      </c>
+      <c r="E69" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28">
-        <v>1691</v>
-      </c>
-      <c r="E69" s="46" t="s">
-        <v>83</v>
-      </c>
+      <c r="F69" s="65"/>
     </row>
     <row r="70" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
+      <c r="A70" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
     </row>
     <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="28"/>
-      <c r="D71" s="23">
+      <c r="B71" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="67"/>
+      <c r="D71" s="72">
         <v>2671</v>
       </c>
-      <c r="E71" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>125</v>
+      <c r="E71" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="65" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67">
+        <v>2671</v>
+      </c>
+      <c r="E72" s="71" t="s">
         <v>101</v>
-      </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28">
-        <v>2671</v>
-      </c>
-      <c r="E72" s="46" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="C73" s="28"/>
       <c r="D73" s="23">
         <v>2721</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
+      <c r="A74" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
     </row>
     <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="23">
+      <c r="B75" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="67"/>
+      <c r="D75" s="72">
         <v>2877</v>
       </c>
-      <c r="E75" s="24" t="s">
-        <v>127</v>
-      </c>
+      <c r="E75" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F75" s="65"/>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67">
+        <v>2877</v>
+      </c>
+      <c r="E76" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28">
-        <v>2877</v>
-      </c>
-      <c r="E76" s="46" t="s">
-        <v>108</v>
-      </c>
+      <c r="F76" s="65"/>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="28"/>
       <c r="D77" s="28">
         <v>2957</v>
       </c>
       <c r="E77" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="56" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
     </row>
     <row r="79" spans="1:6" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="32" t="s">
         <v>111</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>112</v>
       </c>
       <c r="C79" s="32"/>
       <c r="D79" s="30">
         <v>3327</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>115</v>
       </c>
       <c r="C80" s="35"/>
       <c r="D80" s="34">
         <v>3329</v>
       </c>
       <c r="E80" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4639,14 +4785,23 @@
         <v>3334</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A56:E56"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A37:E37"/>
@@ -4656,15 +4811,6 @@
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A56:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5149,8 +5295,8 @@
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>723900</xdr:rowOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
